--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H2">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I2">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J2">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.94073466666667</v>
+        <v>13.76827833333333</v>
       </c>
       <c r="N2">
-        <v>95.822204</v>
+        <v>41.304835</v>
       </c>
       <c r="O2">
-        <v>0.3365562672414605</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="P2">
-        <v>0.3365562672414606</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="Q2">
-        <v>103.121268745292</v>
+        <v>116.5877799368822</v>
       </c>
       <c r="R2">
-        <v>928.0914187076279</v>
+        <v>1049.29001943194</v>
       </c>
       <c r="S2">
-        <v>0.02158323785499276</v>
+        <v>0.02733594719199339</v>
       </c>
       <c r="T2">
-        <v>0.02158323785499277</v>
+        <v>0.02733594719199339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H3">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I3">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J3">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>115.755847</v>
       </c>
       <c r="O3">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="P3">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="Q3">
-        <v>124.573317133531</v>
+        <v>326.7345630709675</v>
       </c>
       <c r="R3">
-        <v>1121.159854201779</v>
+        <v>2940.611067638707</v>
       </c>
       <c r="S3">
-        <v>0.02607314249322788</v>
+        <v>0.07660836124285368</v>
       </c>
       <c r="T3">
-        <v>0.02607314249322788</v>
+        <v>0.0766083612428537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H4">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I4">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J4">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>73.13571999999999</v>
       </c>
       <c r="O4">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502611</v>
       </c>
       <c r="P4">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502612</v>
       </c>
       <c r="Q4">
-        <v>78.70668719955999</v>
+        <v>206.4342159673422</v>
       </c>
       <c r="R4">
-        <v>708.3601847960399</v>
+        <v>1857.90794370608</v>
       </c>
       <c r="S4">
-        <v>0.01647327628214596</v>
+        <v>0.04840194083255421</v>
       </c>
       <c r="T4">
-        <v>0.01647327628214596</v>
+        <v>0.04840194083255422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>27.845853</v>
       </c>
       <c r="I5">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J5">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.94073466666667</v>
+        <v>13.76827833333333</v>
       </c>
       <c r="N5">
-        <v>95.822204</v>
+        <v>41.304835</v>
       </c>
       <c r="O5">
-        <v>0.3365562672414605</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="P5">
-        <v>0.3365562672414606</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="Q5">
-        <v>296.4723340800014</v>
+        <v>127.7964848443617</v>
       </c>
       <c r="R5">
-        <v>2668.251006720012</v>
+        <v>1150.168363599255</v>
       </c>
       <c r="S5">
-        <v>0.0620515339049849</v>
+        <v>0.02996401477855669</v>
       </c>
       <c r="T5">
-        <v>0.06205153390498491</v>
+        <v>0.0299640147785567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>27.845853</v>
       </c>
       <c r="I6">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J6">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>115.755847</v>
       </c>
       <c r="O6">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="P6">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="Q6">
         <v>358.1466999391657</v>
@@ -818,10 +818,10 @@
         <v>3223.320299452491</v>
       </c>
       <c r="S6">
-        <v>0.07495995254733177</v>
+        <v>0.08397346001291005</v>
       </c>
       <c r="T6">
-        <v>0.07495995254733179</v>
+        <v>0.08397346001291005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>27.845853</v>
       </c>
       <c r="I7">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J7">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>73.13571999999999</v>
       </c>
       <c r="O7">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502611</v>
       </c>
       <c r="P7">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502612</v>
       </c>
       <c r="Q7">
         <v>226.2807231299067</v>
@@ -880,10 +880,10 @@
         <v>2036.52650816916</v>
       </c>
       <c r="S7">
-        <v>0.04736045947393866</v>
+        <v>0.05305528505126298</v>
       </c>
       <c r="T7">
-        <v>0.04736045947393866</v>
+        <v>0.05305528505126299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>113.499447</v>
       </c>
       <c r="I8">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J8">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.94073466666667</v>
+        <v>13.76827833333333</v>
       </c>
       <c r="N8">
-        <v>95.822204</v>
+        <v>41.304835</v>
       </c>
       <c r="O8">
-        <v>0.3365562672414605</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="P8">
-        <v>0.3365562672414606</v>
+        <v>0.1794330173761795</v>
       </c>
       <c r="Q8">
-        <v>1208.418573813465</v>
+        <v>520.8973256584717</v>
       </c>
       <c r="R8">
-        <v>10875.76716432119</v>
+        <v>4688.075930926245</v>
       </c>
       <c r="S8">
-        <v>0.2529214954814828</v>
+        <v>0.1221330554056294</v>
       </c>
       <c r="T8">
-        <v>0.2529214954814829</v>
+        <v>0.1221330554056294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>113.499447</v>
       </c>
       <c r="I9">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J9">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>115.755847</v>
       </c>
       <c r="O9">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="P9">
-        <v>0.406569189096231</v>
+        <v>0.5028568908735593</v>
       </c>
       <c r="Q9">
         <v>1459.802735724068</v>
@@ -1004,10 +1004,10 @@
         <v>13138.22462151661</v>
       </c>
       <c r="S9">
-        <v>0.3055360940556713</v>
+        <v>0.3422750696177956</v>
       </c>
       <c r="T9">
-        <v>0.3055360940556713</v>
+        <v>0.3422750696177956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>113.499447</v>
       </c>
       <c r="I10">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J10">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>73.13571999999999</v>
       </c>
       <c r="O10">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502611</v>
       </c>
       <c r="P10">
-        <v>0.2568745436623085</v>
+        <v>0.3177100917502612</v>
       </c>
       <c r="Q10">
         <v>922.3181973274266</v>
@@ -1066,10 +1066,10 @@
         <v>8300.86377594684</v>
       </c>
       <c r="S10">
-        <v>0.1930408079062239</v>
+        <v>0.2162528658664439</v>
       </c>
       <c r="T10">
-        <v>0.1930408079062239</v>
+        <v>0.216252865866444</v>
       </c>
     </row>
   </sheetData>
